--- a/Antidemidovich_1.xlsx
+++ b/Antidemidovich_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\test_check\math_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692AD8D6-88D0-4DEA-AFC2-A1B9D30515E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B26AE88-6A02-4D44-95A5-A642695DA505}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="1080" windowWidth="14145" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11130" yWindow="2385" windowWidth="14145" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Оглавление" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4148" uniqueCount="2593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4149" uniqueCount="2594">
   <si>
     <t>id</t>
   </si>
@@ -17483,6 +17483,9 @@
   </si>
   <si>
     <t> $\lim _{x \rightarrow 0}\left(\frac{1+\operatorname{tg} x}{1+\sin x}\right)^{\frac{1}{\sin x}}$.</t>
+  </si>
+  <si>
+    <t>Введение в анализ</t>
   </si>
 </sst>
 </file>
@@ -17541,13 +17544,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17887,10 +17893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17907,14 +17913,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>2593</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -17922,7 +17928,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -17933,7 +17939,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -17944,7 +17950,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -17955,7 +17961,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -17966,7 +17972,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -17977,7 +17983,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -17988,7 +17994,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -17999,7 +18005,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -18010,9 +18016,20 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
     </row>
